--- a/data/data_20240308_combined_v2.xlsx
+++ b/data/data_20240308_combined_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaeldias/Desktop/Projects/HEAD/Weather Hamilton Main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456BA225-0DCF-044C-A1E4-23FAA1D570DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3725DA82-1370-6340-9ADC-2F970C552689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{4D587D4D-3294-404F-BE4D-373AFCBD9F7A}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="19680" xr2:uid="{4D587D4D-3294-404F-BE4D-373AFCBD9F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1348">
   <si>
     <t>Asset Name</t>
   </si>
@@ -4049,6 +4049,42 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Weather Conditions</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Snow, Ice Accumulation, Humidity, Condensation, Storms, Wind, Precipitation (Indoor facilities may still be susceptible due to roofing and insulation)</t>
+  </si>
+  <si>
+    <t>Snow, Ice Accumulation, Storms, Rainfall, Flooding, Frost, Freeze-Thaw Cycles, Wind</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Snow, Ice Accumulation, Storms, Wind, Precipitation (Indoor facilities may still be susceptible due to roofing and insulation)</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Rainfall, Flooding, Frost</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Humidity, Condensation, Precipitation (Indoor facilities may still be susceptible due to roofing and insulation)</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Humidity, Condensation</t>
+  </si>
+  <si>
+    <t>Storms, Wind</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Storms, Wind</t>
+  </si>
+  <si>
+    <t>High Temperatures, Low Temperatures, Snow, Ice Accumulation, Freeze-Thaw Cycles, Storms</t>
+  </si>
+  <si>
+    <t>Snow, Ice Accumulation, Storms, Wind</t>
   </si>
 </sst>
 </file>
@@ -4173,6 +4209,12 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -4180,12 +4222,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4305,30 +4341,30 @@
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C64B81D-A40A-4DE0-9BC7-9D784309BCD7}" name="Asset Name"/>
     <tableColumn id="2" xr3:uid="{E3BC8E39-D07C-4155-A952-6DB7FCBDEB24}" name="Asset Type"/>
-    <tableColumn id="11" xr3:uid="{3582EDEB-F9D6-ED44-ABF1-4A79837CC3BB}" name="Maintenance Types" dataDxfId="6">
-      <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{3582EDEB-F9D6-ED44-ABF1-4A79837CC3BB}" name="Maintenance Types" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7A1F072B-BA36-A34D-8D59-8DD1AC8014D4}" name="Weather Condition" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{7A1F072B-BA36-A34D-8D59-8DD1AC8014D4}" name="Weather Condition" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4FD45968-6E3A-45AD-B4D2-FA5BDB4E463A}" name="Asset Address"/>
-    <tableColumn id="18" xr3:uid="{CE170D38-8A84-7C47-82A5-3E18F6A87803}" name="Indoor/Outdoor" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{CE170D38-8A84-7C47-82A5-3E18F6A87803}" name="Indoor/Outdoor" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{CFC2B8DA-128F-F44D-8951-A38A5A0F025C}" name="Likely End User Age Category" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{CFC2B8DA-128F-F44D-8951-A38A5A0F025C}" name="Likely End User Age Category" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[Asset Type]],Other!$A$1:$C$18,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{96AD7D77-2CAE-4C57-B5BD-AACB1BC1695F}" name="Asset Size"/>
     <tableColumn id="5" xr3:uid="{7E8D8769-3C88-49FF-BDA6-9A3FEB1E3EDC}" name="Asset Measure Unit"/>
-    <tableColumn id="6" xr3:uid="{626726F3-9C5C-4869-B529-6F38D5397CB6}" name="Asset Date Built" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{3123E2E5-EF01-4358-9727-FE07A5EC74F0}" name="2023 FCI Rating" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{626726F3-9C5C-4869-B529-6F38D5397CB6}" name="Asset Date Built" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3123E2E5-EF01-4358-9727-FE07A5EC74F0}" name="2023 FCI Rating" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{603CEA58-4011-49B0-8DEE-981DAE8AB848}" name="Full_Address"/>
     <tableColumn id="9" xr3:uid="{DE7A82F5-4F84-4C71-B611-1ECE2F201E05}" name="Latitude"/>
     <tableColumn id="10" xr3:uid="{6F2D5230-D692-4C39-A46C-27E7D8B78FD2}" name="Longitude"/>
     <tableColumn id="13" xr3:uid="{E53D94F2-5A6C-4396-8CD5-8CE65D4D7D53}" name="Assessment Date"/>
     <tableColumn id="14" xr3:uid="{613B2D45-8961-424D-83BA-2D93548F7F66}" name="Current Replacement Value"/>
     <tableColumn id="15" xr3:uid="{5D00925C-072B-49D5-809A-FE73386C417D}" name="Current Needs Value"/>
-    <tableColumn id="16" xr3:uid="{DE962170-87BE-4C92-A6A9-37CA0D1EAB8C}" name="Current FCI" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{DE962170-87BE-4C92-A6A9-37CA0D1EAB8C}" name="Current FCI" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4633,13 +4669,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236BAFA-F1E7-43BD-90AD-183EC5CAF6D7}">
   <dimension ref="A1:R501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="4" width="94.33203125" customWidth="1"/>
+    <col min="3" max="3" width="94.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="36.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
@@ -4717,12 +4756,12 @@
         <v>11</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D2">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -4777,12 +4816,12 @@
         <v>16</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D3">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -4837,12 +4876,12 @@
         <v>20</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D4">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -4897,12 +4936,12 @@
         <v>22</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D5">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -4957,12 +4996,12 @@
         <v>16</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D6">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -5017,12 +5056,12 @@
         <v>16</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D7">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -5077,12 +5116,12 @@
         <v>20</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D8">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -5137,12 +5176,12 @@
         <v>16</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D9">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -5197,12 +5236,12 @@
         <v>16</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D10">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -5257,12 +5296,12 @@
         <v>39</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D11">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -5317,12 +5356,12 @@
         <v>11</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D12">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -5377,12 +5416,12 @@
         <v>11</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D13">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -5437,12 +5476,12 @@
         <v>11</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D14">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -5497,12 +5536,12 @@
         <v>48</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D15">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -5557,12 +5596,12 @@
         <v>52</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D16">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -5617,12 +5656,12 @@
         <v>39</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D17">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -5677,12 +5716,12 @@
         <v>16</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D18">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -5737,12 +5776,12 @@
         <v>11</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D19">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>62</v>
@@ -5797,12 +5836,12 @@
         <v>52</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D20">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
@@ -5857,12 +5896,12 @@
         <v>16</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D21">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
@@ -5917,12 +5956,12 @@
         <v>16</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D22">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>71</v>
@@ -5977,12 +6016,12 @@
         <v>74</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D23">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>75</v>
@@ -6037,12 +6076,12 @@
         <v>74</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D24">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
@@ -6097,12 +6136,12 @@
         <v>16</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D25">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
@@ -6157,12 +6196,12 @@
         <v>16</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D26">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
@@ -6217,12 +6256,12 @@
         <v>11</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D27">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
@@ -6274,12 +6313,12 @@
         <v>16</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D28">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
@@ -6334,12 +6373,12 @@
         <v>93</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D29">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>94</v>
@@ -6394,12 +6433,12 @@
         <v>16</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D30">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>97</v>
@@ -6451,12 +6490,12 @@
         <v>74</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D31">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>100</v>
@@ -6511,12 +6550,12 @@
         <v>22</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D32">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
@@ -6571,12 +6610,12 @@
         <v>11</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D33">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
@@ -6631,12 +6670,12 @@
         <v>11</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D34">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
@@ -6691,12 +6730,12 @@
         <v>11</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D35">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
@@ -6751,12 +6790,12 @@
         <v>11</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D36">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -6811,12 +6850,12 @@
         <v>11</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D37">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
@@ -6871,12 +6910,12 @@
         <v>11</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D38">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
@@ -6931,12 +6970,12 @@
         <v>22</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D39">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
@@ -6991,12 +7030,12 @@
         <v>16</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D40">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>117</v>
@@ -7051,12 +7090,12 @@
         <v>120</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D41">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -7111,12 +7150,12 @@
         <v>93</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D42">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -7165,12 +7204,12 @@
         <v>74</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D43">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>121</v>
@@ -7225,12 +7264,12 @@
         <v>16</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D44">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>128</v>
@@ -7285,12 +7324,12 @@
         <v>16</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D45">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>131</v>
@@ -7345,12 +7384,12 @@
         <v>16</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D46">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>131</v>
@@ -7405,12 +7444,12 @@
         <v>16</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D47">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>131</v>
@@ -7465,12 +7504,12 @@
         <v>16</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D48">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>121</v>
@@ -7525,12 +7564,12 @@
         <v>93</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D49">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>137</v>
@@ -7585,12 +7624,12 @@
         <v>39</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D50">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>140</v>
@@ -7645,12 +7684,12 @@
         <v>120</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D51" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D51">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
         <v>143</v>
@@ -7705,12 +7744,12 @@
         <v>93</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D52" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D52">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
         <v>146</v>
@@ -7765,12 +7804,12 @@
         <v>16</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D53">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>149</v>
@@ -7825,12 +7864,12 @@
         <v>52</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D54">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
         <v>152</v>
@@ -7885,12 +7924,12 @@
         <v>93</v>
       </c>
       <c r="C55" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D55">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>155</v>
@@ -7945,12 +7984,12 @@
         <v>16</v>
       </c>
       <c r="C56" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D56">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>158</v>
@@ -8005,12 +8044,12 @@
         <v>11</v>
       </c>
       <c r="C57" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D57">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>161</v>
@@ -8065,12 +8104,12 @@
         <v>11</v>
       </c>
       <c r="C58" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D58">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>161</v>
@@ -8125,12 +8164,12 @@
         <v>11</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D59">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>161</v>
@@ -8185,12 +8224,12 @@
         <v>20</v>
       </c>
       <c r="C60" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D60">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>166</v>
@@ -8245,12 +8284,12 @@
         <v>74</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D61" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D61">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>169</v>
@@ -8305,12 +8344,12 @@
         <v>11</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D62" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D62">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>172</v>
@@ -8365,12 +8404,12 @@
         <v>11</v>
       </c>
       <c r="C63" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D63">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>172</v>
@@ -8425,12 +8464,12 @@
         <v>11</v>
       </c>
       <c r="C64" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D64">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>172</v>
@@ -8485,12 +8524,12 @@
         <v>16</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D65" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D65">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>177</v>
@@ -8545,12 +8584,12 @@
         <v>74</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D66" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D66">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>180</v>
@@ -8605,12 +8644,12 @@
         <v>16</v>
       </c>
       <c r="C67" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D67" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D67">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>183</v>
@@ -8665,12 +8704,12 @@
         <v>16</v>
       </c>
       <c r="C68" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D68" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D68">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>183</v>
@@ -8725,12 +8764,12 @@
         <v>16</v>
       </c>
       <c r="C69" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D69">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>187</v>
@@ -8785,12 +8824,12 @@
         <v>16</v>
       </c>
       <c r="C70" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D70">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>190</v>
@@ -8845,12 +8884,12 @@
         <v>120</v>
       </c>
       <c r="C71" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D71">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>193</v>
@@ -8905,12 +8944,12 @@
         <v>16</v>
       </c>
       <c r="C72" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D72" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D72">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>196</v>
@@ -8965,12 +9004,12 @@
         <v>52</v>
       </c>
       <c r="C73" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D73" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D73">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>199</v>
@@ -9025,12 +9064,12 @@
         <v>93</v>
       </c>
       <c r="C74" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D74" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D74">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
         <v>202</v>
@@ -9085,12 +9124,12 @@
         <v>74</v>
       </c>
       <c r="C75" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D75" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D75">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>205</v>
@@ -9145,12 +9184,12 @@
         <v>16</v>
       </c>
       <c r="C76" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D76" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D76">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>208</v>
@@ -9205,12 +9244,12 @@
         <v>16</v>
       </c>
       <c r="C77" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D77" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D77">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>211</v>
@@ -9265,12 +9304,12 @@
         <v>16</v>
       </c>
       <c r="C78" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D78" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D78">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>214</v>
@@ -9325,12 +9364,12 @@
         <v>16</v>
       </c>
       <c r="C79" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D79" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D79">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>214</v>
@@ -9385,12 +9424,12 @@
         <v>22</v>
       </c>
       <c r="C80" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D80" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D80">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>218</v>
@@ -9445,12 +9484,12 @@
         <v>16</v>
       </c>
       <c r="C81" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D81" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D81">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>221</v>
@@ -9505,12 +9544,12 @@
         <v>52</v>
       </c>
       <c r="C82" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D82" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D82">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>224</v>
@@ -9565,12 +9604,12 @@
         <v>11</v>
       </c>
       <c r="C83" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D83" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D83">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>227</v>
@@ -9625,12 +9664,12 @@
         <v>230</v>
       </c>
       <c r="C84" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D84" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D84">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>231</v>
@@ -9685,12 +9724,12 @@
         <v>230</v>
       </c>
       <c r="C85" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D85" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D85">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>234</v>
@@ -9745,12 +9784,12 @@
         <v>230</v>
       </c>
       <c r="C86" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D86" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D86">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>234</v>
@@ -9805,12 +9844,12 @@
         <v>230</v>
       </c>
       <c r="C87" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D87" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D87">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>234</v>
@@ -9865,12 +9904,12 @@
         <v>230</v>
       </c>
       <c r="C88" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D88" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D88">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>234</v>
@@ -9925,12 +9964,12 @@
         <v>230</v>
       </c>
       <c r="C89" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D89" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D89">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>234</v>
@@ -9985,12 +10024,12 @@
         <v>230</v>
       </c>
       <c r="C90" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D90" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D90">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>234</v>
@@ -10045,12 +10084,12 @@
         <v>230</v>
       </c>
       <c r="C91" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D91" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D91">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>234</v>
@@ -10105,12 +10144,12 @@
         <v>230</v>
       </c>
       <c r="C92" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D92" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D92">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>234</v>
@@ -10165,12 +10204,12 @@
         <v>230</v>
       </c>
       <c r="C93" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D93" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D93">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>234</v>
@@ -10225,12 +10264,12 @@
         <v>230</v>
       </c>
       <c r="C94" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D94" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D94">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>234</v>
@@ -10285,12 +10324,12 @@
         <v>20</v>
       </c>
       <c r="C95" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D95" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D95">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>246</v>
@@ -10345,12 +10384,12 @@
         <v>120</v>
       </c>
       <c r="C96" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D96" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D96">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>249</v>
@@ -10405,12 +10444,12 @@
         <v>11</v>
       </c>
       <c r="C97" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D97" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D97">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>252</v>
@@ -10465,12 +10504,12 @@
         <v>11</v>
       </c>
       <c r="C98" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D98" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D98">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>252</v>
@@ -10525,12 +10564,12 @@
         <v>11</v>
       </c>
       <c r="C99" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D99" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D99">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>252</v>
@@ -10585,12 +10624,12 @@
         <v>74</v>
       </c>
       <c r="C100" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D100" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D100">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>257</v>
@@ -10636,12 +10675,12 @@
         <v>16</v>
       </c>
       <c r="C101" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D101" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D101">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>260</v>
@@ -10696,12 +10735,12 @@
         <v>74</v>
       </c>
       <c r="C102" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D102" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D102">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>263</v>
@@ -10756,12 +10795,12 @@
         <v>74</v>
       </c>
       <c r="C103" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D103" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D103">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>263</v>
@@ -10816,12 +10855,12 @@
         <v>74</v>
       </c>
       <c r="C104" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D104" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D104">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>263</v>
@@ -10876,12 +10915,12 @@
         <v>16</v>
       </c>
       <c r="C105" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D105" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D105">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>268</v>
@@ -10936,12 +10975,12 @@
         <v>16</v>
       </c>
       <c r="C106" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D106" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D106">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>268</v>
@@ -10996,12 +11035,12 @@
         <v>16</v>
       </c>
       <c r="C107" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D107" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D107">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>268</v>
@@ -11056,12 +11095,12 @@
         <v>16</v>
       </c>
       <c r="C108" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D108" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D108">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>268</v>
@@ -11116,12 +11155,12 @@
         <v>16</v>
       </c>
       <c r="C109" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D109" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D109">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>268</v>
@@ -11176,12 +11215,12 @@
         <v>16</v>
       </c>
       <c r="C110" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D110" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D110">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>268</v>
@@ -11236,12 +11275,12 @@
         <v>16</v>
       </c>
       <c r="C111" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D111" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D111">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
         <v>268</v>
@@ -11296,12 +11335,12 @@
         <v>16</v>
       </c>
       <c r="C112" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D112" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D112">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
         <v>268</v>
@@ -11356,12 +11395,12 @@
         <v>16</v>
       </c>
       <c r="C113" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D113" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D113">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
         <v>268</v>
@@ -11416,12 +11455,12 @@
         <v>16</v>
       </c>
       <c r="C114" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D114" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D114">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
         <v>268</v>
@@ -11476,12 +11515,12 @@
         <v>16</v>
       </c>
       <c r="C115" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D115" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D115">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
         <v>268</v>
@@ -11536,12 +11575,12 @@
         <v>16</v>
       </c>
       <c r="C116" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D116" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D116">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
         <v>268</v>
@@ -11596,12 +11635,12 @@
         <v>16</v>
       </c>
       <c r="C117" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D117" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D117">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>268</v>
@@ -11656,12 +11695,12 @@
         <v>16</v>
       </c>
       <c r="C118" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D118" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D118">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>268</v>
@@ -11716,12 +11755,12 @@
         <v>16</v>
       </c>
       <c r="C119" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D119" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D119">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
         <v>263</v>
@@ -11776,12 +11815,12 @@
         <v>39</v>
       </c>
       <c r="C120" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D120" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D120">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E120" t="s">
         <v>285</v>
@@ -11836,12 +11875,12 @@
         <v>48</v>
       </c>
       <c r="C121" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D121" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D121">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E121" t="s">
         <v>288</v>
@@ -11896,12 +11935,12 @@
         <v>52</v>
       </c>
       <c r="C122" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D122" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D122">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
         <v>291</v>
@@ -11956,12 +11995,12 @@
         <v>39</v>
       </c>
       <c r="C123" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D123" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D123">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>294</v>
@@ -12016,12 +12055,12 @@
         <v>93</v>
       </c>
       <c r="C124" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D124" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D124">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>297</v>
@@ -12076,12 +12115,12 @@
         <v>16</v>
       </c>
       <c r="C125" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D125" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D125">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E125" t="s">
         <v>297</v>
@@ -12136,12 +12175,12 @@
         <v>16</v>
       </c>
       <c r="C126" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D126" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D126">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
         <v>301</v>
@@ -12196,12 +12235,12 @@
         <v>120</v>
       </c>
       <c r="C127" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D127" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D127">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E127" t="s">
         <v>304</v>
@@ -12256,12 +12295,12 @@
         <v>20</v>
       </c>
       <c r="C128" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D128" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D128">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
         <v>307</v>
@@ -12316,12 +12355,12 @@
         <v>16</v>
       </c>
       <c r="C129" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D129" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D129">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
         <v>310</v>
@@ -12376,12 +12415,12 @@
         <v>22</v>
       </c>
       <c r="C130" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D130" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D130">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E130" t="s">
         <v>313</v>
@@ -12436,12 +12475,12 @@
         <v>120</v>
       </c>
       <c r="C131" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D131" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D131">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E131" t="s">
         <v>316</v>
@@ -12496,12 +12535,12 @@
         <v>39</v>
       </c>
       <c r="C132" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D132" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D132">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E132" t="s">
         <v>319</v>
@@ -12556,12 +12595,12 @@
         <v>22</v>
       </c>
       <c r="C133" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D133" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D133">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E133" t="s">
         <v>322</v>
@@ -12616,12 +12655,12 @@
         <v>22</v>
       </c>
       <c r="C134" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D134" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D134">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E134" t="s">
         <v>325</v>
@@ -12676,12 +12715,12 @@
         <v>16</v>
       </c>
       <c r="C135" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D135" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D135">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
         <v>328</v>
@@ -12736,12 +12775,12 @@
         <v>16</v>
       </c>
       <c r="C136" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D136" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D136">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
         <v>328</v>
@@ -12796,12 +12835,12 @@
         <v>16</v>
       </c>
       <c r="C137" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D137" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D137">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>332</v>
@@ -12856,12 +12895,12 @@
         <v>11</v>
       </c>
       <c r="C138" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D138" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D138">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
         <v>332</v>
@@ -12916,12 +12955,12 @@
         <v>16</v>
       </c>
       <c r="C139" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D139" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D139">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
         <v>332</v>
@@ -12976,12 +13015,12 @@
         <v>16</v>
       </c>
       <c r="C140" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D140" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D140">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
         <v>328</v>
@@ -13036,12 +13075,12 @@
         <v>16</v>
       </c>
       <c r="C141" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D141" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D141">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>328</v>
@@ -13096,12 +13135,12 @@
         <v>16</v>
       </c>
       <c r="C142" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D142" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D142">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
         <v>328</v>
@@ -13156,12 +13195,12 @@
         <v>11</v>
       </c>
       <c r="C143" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D143" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D143">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
         <v>332</v>
@@ -13216,12 +13255,12 @@
         <v>16</v>
       </c>
       <c r="C144" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D144" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D144">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>332</v>
@@ -13276,12 +13315,12 @@
         <v>20</v>
       </c>
       <c r="C145" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D145" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D145">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
         <v>332</v>
@@ -13336,12 +13375,12 @@
         <v>52</v>
       </c>
       <c r="C146" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D146" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D146">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
         <v>343</v>
@@ -13396,12 +13435,12 @@
         <v>48</v>
       </c>
       <c r="C147" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D147" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D147">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E147" t="s">
         <v>346</v>
@@ -13456,12 +13495,12 @@
         <v>93</v>
       </c>
       <c r="C148" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D148" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D148">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
         <v>349</v>
@@ -13516,12 +13555,12 @@
         <v>39</v>
       </c>
       <c r="C149" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D149" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D149">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>352</v>
@@ -13576,12 +13615,12 @@
         <v>11</v>
       </c>
       <c r="C150" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D150" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D150">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
         <v>356</v>
@@ -13636,12 +13675,12 @@
         <v>11</v>
       </c>
       <c r="C151" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D151" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D151">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>356</v>
@@ -13696,12 +13735,12 @@
         <v>11</v>
       </c>
       <c r="C152" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D152" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D152">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
         <v>360</v>
@@ -13756,12 +13795,12 @@
         <v>11</v>
       </c>
       <c r="C153" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D153" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D153">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>360</v>
@@ -13816,12 +13855,12 @@
         <v>11</v>
       </c>
       <c r="C154" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D154" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D154">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>360</v>
@@ -13876,12 +13915,12 @@
         <v>11</v>
       </c>
       <c r="C155" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D155" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D155">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>360</v>
@@ -13936,12 +13975,12 @@
         <v>74</v>
       </c>
       <c r="C156" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D156" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D156">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
         <v>366</v>
@@ -13987,12 +14026,12 @@
         <v>16</v>
       </c>
       <c r="C157" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D157" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D157">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>366</v>
@@ -14035,12 +14074,12 @@
         <v>16</v>
       </c>
       <c r="C158" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D158" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D158">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
         <v>366</v>
@@ -14083,12 +14122,12 @@
         <v>16</v>
       </c>
       <c r="C159" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D159" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D159">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>371</v>
@@ -14143,12 +14182,12 @@
         <v>374</v>
       </c>
       <c r="C160" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D160" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D160">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
         <v>375</v>
@@ -14203,12 +14242,12 @@
         <v>93</v>
       </c>
       <c r="C161" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D161" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D161">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
         <v>378</v>
@@ -14263,12 +14302,12 @@
         <v>16</v>
       </c>
       <c r="C162" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D162" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D162">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
         <v>378</v>
@@ -14320,12 +14359,12 @@
         <v>120</v>
       </c>
       <c r="C163" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D163" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D163">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
         <v>382</v>
@@ -14380,12 +14419,12 @@
         <v>16</v>
       </c>
       <c r="C164" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D164" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D164">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>385</v>
@@ -14440,12 +14479,12 @@
         <v>16</v>
       </c>
       <c r="C165" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D165" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D165">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>388</v>
@@ -14500,12 +14539,12 @@
         <v>16</v>
       </c>
       <c r="C166" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D166" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D166">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>391</v>
@@ -14560,12 +14599,12 @@
         <v>74</v>
       </c>
       <c r="C167" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D167" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D167">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
         <v>394</v>
@@ -14620,12 +14659,12 @@
         <v>16</v>
       </c>
       <c r="C168" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D168" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D168">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
         <v>397</v>
@@ -14680,12 +14719,12 @@
         <v>74</v>
       </c>
       <c r="C169" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D169" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D169">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>400</v>
@@ -14740,12 +14779,12 @@
         <v>16</v>
       </c>
       <c r="C170" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D170" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D170">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
         <v>403</v>
@@ -14800,12 +14839,12 @@
         <v>16</v>
       </c>
       <c r="C171" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D171" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D171">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E171" t="s">
         <v>406</v>
@@ -14860,12 +14899,12 @@
         <v>16</v>
       </c>
       <c r="C172" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D172" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D172">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E172" t="s">
         <v>406</v>
@@ -14920,12 +14959,12 @@
         <v>74</v>
       </c>
       <c r="C173" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D173" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D173">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E173" t="s">
         <v>406</v>
@@ -14980,12 +15019,12 @@
         <v>16</v>
       </c>
       <c r="C174" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D174" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D174">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>411</v>
@@ -15040,12 +15079,12 @@
         <v>16</v>
       </c>
       <c r="C175" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D175" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D175">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E175" t="s">
         <v>414</v>
@@ -15100,12 +15139,12 @@
         <v>417</v>
       </c>
       <c r="C176" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D176" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D176">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E176" t="s">
         <v>418</v>
@@ -15160,12 +15199,12 @@
         <v>417</v>
       </c>
       <c r="C177" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D177" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D177">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>421</v>
@@ -15220,12 +15259,12 @@
         <v>417</v>
       </c>
       <c r="C178" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D178" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D178">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E178" t="s">
         <v>424</v>
@@ -15280,12 +15319,12 @@
         <v>417</v>
       </c>
       <c r="C179" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D179" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D179">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E179" t="s">
         <v>427</v>
@@ -15340,12 +15379,12 @@
         <v>417</v>
       </c>
       <c r="C180" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D180" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D180">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
         <v>430</v>
@@ -15400,12 +15439,12 @@
         <v>417</v>
       </c>
       <c r="C181" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D181" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D181">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E181" t="s">
         <v>433</v>
@@ -15460,12 +15499,12 @@
         <v>417</v>
       </c>
       <c r="C182" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D182" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D182">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E182" t="s">
         <v>436</v>
@@ -15520,12 +15559,12 @@
         <v>417</v>
       </c>
       <c r="C183" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D183" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D183">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E183" t="s">
         <v>439</v>
@@ -15580,12 +15619,12 @@
         <v>417</v>
       </c>
       <c r="C184" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D184" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D184">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E184" t="s">
         <v>442</v>
@@ -15640,12 +15679,12 @@
         <v>417</v>
       </c>
       <c r="C185" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D185" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D185">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>445</v>
@@ -15700,12 +15739,12 @@
         <v>417</v>
       </c>
       <c r="C186" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D186" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D186">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
         <v>448</v>
@@ -15760,12 +15799,12 @@
         <v>417</v>
       </c>
       <c r="C187" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D187" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D187">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E187" t="s">
         <v>451</v>
@@ -15820,12 +15859,12 @@
         <v>417</v>
       </c>
       <c r="C188" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D188" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D188">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E188" t="s">
         <v>454</v>
@@ -15880,12 +15919,12 @@
         <v>417</v>
       </c>
       <c r="C189" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D189" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D189">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E189" t="s">
         <v>457</v>
@@ -15940,12 +15979,12 @@
         <v>417</v>
       </c>
       <c r="C190" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D190" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D190">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
         <v>460</v>
@@ -16000,12 +16039,12 @@
         <v>417</v>
       </c>
       <c r="C191" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D191" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D191">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E191" t="s">
         <v>460</v>
@@ -16060,12 +16099,12 @@
         <v>417</v>
       </c>
       <c r="C192" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D192" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D192">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E192" t="s">
         <v>464</v>
@@ -16120,12 +16159,12 @@
         <v>417</v>
       </c>
       <c r="C193" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D193" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D193">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E193" t="s">
         <v>467</v>
@@ -16180,12 +16219,12 @@
         <v>417</v>
       </c>
       <c r="C194" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D194" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D194">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
         <v>470</v>
@@ -16240,12 +16279,12 @@
         <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D195" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D195">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
         <v>473</v>
@@ -16300,12 +16339,12 @@
         <v>417</v>
       </c>
       <c r="C196" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D196" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D196">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
         <v>476</v>
@@ -16360,12 +16399,12 @@
         <v>417</v>
       </c>
       <c r="C197" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D197" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D197">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
         <v>479</v>
@@ -16420,12 +16459,12 @@
         <v>417</v>
       </c>
       <c r="C198" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D198" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D198">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E198" t="s">
         <v>482</v>
@@ -16480,12 +16519,12 @@
         <v>417</v>
       </c>
       <c r="C199" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D199" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D199">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E199" t="s">
         <v>485</v>
@@ -16540,12 +16579,12 @@
         <v>417</v>
       </c>
       <c r="C200" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D200" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D200">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
         <v>488</v>
@@ -16600,12 +16639,12 @@
         <v>417</v>
       </c>
       <c r="C201" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D201" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D201">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E201" t="s">
         <v>491</v>
@@ -16660,12 +16699,12 @@
         <v>417</v>
       </c>
       <c r="C202" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D202" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D202">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E202" t="s">
         <v>494</v>
@@ -16720,12 +16759,12 @@
         <v>417</v>
       </c>
       <c r="C203" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D203" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D203">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E203" t="s">
         <v>137</v>
@@ -16780,12 +16819,12 @@
         <v>417</v>
       </c>
       <c r="C204" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D204" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D204">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
         <v>498</v>
@@ -16840,12 +16879,12 @@
         <v>417</v>
       </c>
       <c r="C205" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D205" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D205">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
         <v>501</v>
@@ -16900,12 +16939,12 @@
         <v>417</v>
       </c>
       <c r="C206" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D206" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D206">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E206" t="s">
         <v>504</v>
@@ -16960,12 +16999,12 @@
         <v>417</v>
       </c>
       <c r="C207" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D207" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D207">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
         <v>507</v>
@@ -17020,12 +17059,12 @@
         <v>510</v>
       </c>
       <c r="C208" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Stage and Lighting Equipment, Sound System Maintenance</v>
       </c>
-      <c r="D208" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D208">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
         <v>511</v>
@@ -17080,12 +17119,12 @@
         <v>510</v>
       </c>
       <c r="C209" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Stage and Lighting Equipment, Sound System Maintenance</v>
       </c>
-      <c r="D209" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D209">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E209" t="s">
         <v>514</v>
@@ -17140,12 +17179,12 @@
         <v>22</v>
       </c>
       <c r="C210" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D210" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D210">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E210" t="s">
         <v>517</v>
@@ -17200,12 +17239,12 @@
         <v>11</v>
       </c>
       <c r="C211" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D211" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D211">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
         <v>520</v>
@@ -17260,12 +17299,12 @@
         <v>11</v>
       </c>
       <c r="C212" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D212" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D212">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
         <v>520</v>
@@ -17320,12 +17359,12 @@
         <v>11</v>
       </c>
       <c r="C213" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D213" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D213">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
         <v>524</v>
@@ -17380,12 +17419,12 @@
         <v>11</v>
       </c>
       <c r="C214" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D214" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D214">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E214" t="s">
         <v>524</v>
@@ -17440,12 +17479,12 @@
         <v>11</v>
       </c>
       <c r="C215" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D215" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D215">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
         <v>524</v>
@@ -17500,12 +17539,12 @@
         <v>529</v>
       </c>
       <c r="C216" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Vehicle Maintenance, Facility Safety Inspections, Maintenance of Waiting Areas and Amenities</v>
       </c>
-      <c r="D216" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Frost and Freeze-Thaw Cycles, Storm Events</v>
+      <c r="D216">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
         <v>530</v>
@@ -17560,12 +17599,12 @@
         <v>16</v>
       </c>
       <c r="C217" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D217" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D217">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
         <v>533</v>
@@ -17620,12 +17659,12 @@
         <v>16</v>
       </c>
       <c r="C218" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D218" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D218">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E218" t="s">
         <v>533</v>
@@ -17680,12 +17719,12 @@
         <v>74</v>
       </c>
       <c r="C219" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D219" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D219">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
         <v>537</v>
@@ -17740,12 +17779,12 @@
         <v>74</v>
       </c>
       <c r="C220" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D220" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D220">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
         <v>537</v>
@@ -17800,12 +17839,12 @@
         <v>52</v>
       </c>
       <c r="C221" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D221" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D221">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E221" t="s">
         <v>541</v>
@@ -17860,12 +17899,12 @@
         <v>93</v>
       </c>
       <c r="C222" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D222" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D222">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E222" t="s">
         <v>544</v>
@@ -17920,12 +17959,12 @@
         <v>11</v>
       </c>
       <c r="C223" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D223" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D223">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E223" t="s">
         <v>547</v>
@@ -17980,12 +18019,12 @@
         <v>74</v>
       </c>
       <c r="C224" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D224" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D224">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E224" t="s">
         <v>550</v>
@@ -18040,12 +18079,12 @@
         <v>16</v>
       </c>
       <c r="C225" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D225" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D225">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
         <v>550</v>
@@ -18100,12 +18139,12 @@
         <v>16</v>
       </c>
       <c r="C226" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D226" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D226">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
         <v>547</v>
@@ -18160,12 +18199,12 @@
         <v>16</v>
       </c>
       <c r="C227" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D227" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D227">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
         <v>550</v>
@@ -18220,12 +18259,12 @@
         <v>16</v>
       </c>
       <c r="C228" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D228" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D228">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
         <v>550</v>
@@ -18280,12 +18319,12 @@
         <v>11</v>
       </c>
       <c r="C229" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D229" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D229">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E229" t="s">
         <v>547</v>
@@ -18340,12 +18379,12 @@
         <v>11</v>
       </c>
       <c r="C230" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D230" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D230">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
         <v>547</v>
@@ -18400,12 +18439,12 @@
         <v>74</v>
       </c>
       <c r="C231" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D231" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D231">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
         <v>550</v>
@@ -18460,12 +18499,12 @@
         <v>74</v>
       </c>
       <c r="C232" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D232" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D232">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
         <v>550</v>
@@ -18520,12 +18559,12 @@
         <v>74</v>
       </c>
       <c r="C233" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D233" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D233">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E233" t="s">
         <v>550</v>
@@ -18580,12 +18619,12 @@
         <v>16</v>
       </c>
       <c r="C234" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D234" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D234">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E234" t="s">
         <v>550</v>
@@ -18640,12 +18679,12 @@
         <v>11</v>
       </c>
       <c r="C235" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D235" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D235">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
         <v>547</v>
@@ -18700,12 +18739,12 @@
         <v>16</v>
       </c>
       <c r="C236" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D236" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D236">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E236" t="s">
         <v>564</v>
@@ -18760,12 +18799,12 @@
         <v>16</v>
       </c>
       <c r="C237" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D237" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D237">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E237" t="s">
         <v>567</v>
@@ -18820,12 +18859,12 @@
         <v>74</v>
       </c>
       <c r="C238" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D238" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D238">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E238" t="s">
         <v>570</v>
@@ -18880,12 +18919,12 @@
         <v>74</v>
       </c>
       <c r="C239" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D239" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D239">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
         <v>570</v>
@@ -18940,12 +18979,12 @@
         <v>16</v>
       </c>
       <c r="C240" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D240" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D240">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
         <v>570</v>
@@ -19000,12 +19039,12 @@
         <v>120</v>
       </c>
       <c r="C241" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D241" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D241">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E241" t="s">
         <v>575</v>
@@ -19060,12 +19099,12 @@
         <v>74</v>
       </c>
       <c r="C242" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D242" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D242">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E242" t="s">
         <v>578</v>
@@ -19120,12 +19159,12 @@
         <v>16</v>
       </c>
       <c r="C243" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D243" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D243">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E243" t="s">
         <v>578</v>
@@ -19180,12 +19219,12 @@
         <v>16</v>
       </c>
       <c r="C244" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D244" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D244">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
         <v>582</v>
@@ -19240,12 +19279,12 @@
         <v>39</v>
       </c>
       <c r="C245" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D245" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D245">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E245" t="s">
         <v>585</v>
@@ -19300,12 +19339,12 @@
         <v>16</v>
       </c>
       <c r="C246" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D246" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D246">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
         <v>588</v>
@@ -19360,12 +19399,12 @@
         <v>74</v>
       </c>
       <c r="C247" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D247" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D247">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
         <v>591</v>
@@ -19420,12 +19459,12 @@
         <v>16</v>
       </c>
       <c r="C248" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D248" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D248">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E248" t="s">
         <v>591</v>
@@ -19480,12 +19519,12 @@
         <v>20</v>
       </c>
       <c r="C249" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D249" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D249">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E249" t="s">
         <v>595</v>
@@ -19540,12 +19579,12 @@
         <v>93</v>
       </c>
       <c r="C250" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D250" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D250">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E250" t="s">
         <v>598</v>
@@ -19600,12 +19639,12 @@
         <v>52</v>
       </c>
       <c r="C251" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D251" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D251">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E251" t="s">
         <v>602</v>
@@ -19660,12 +19699,12 @@
         <v>374</v>
       </c>
       <c r="C252" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D252" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D252">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
         <v>605</v>
@@ -19720,12 +19759,12 @@
         <v>22</v>
       </c>
       <c r="C253" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D253" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D253">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
         <v>608</v>
@@ -19780,12 +19819,12 @@
         <v>16</v>
       </c>
       <c r="C254" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D254" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D254">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
         <v>611</v>
@@ -19840,12 +19879,12 @@
         <v>374</v>
       </c>
       <c r="C255" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D255" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D255">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E255" t="s">
         <v>614</v>
@@ -19900,12 +19939,12 @@
         <v>39</v>
       </c>
       <c r="C256" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D256" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D256">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E256" t="s">
         <v>617</v>
@@ -19960,12 +19999,12 @@
         <v>39</v>
       </c>
       <c r="C257" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D257" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D257">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
         <v>617</v>
@@ -20020,12 +20059,12 @@
         <v>510</v>
       </c>
       <c r="C258" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Stage and Lighting Equipment, Sound System Maintenance</v>
       </c>
-      <c r="D258" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D258">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E258" t="s">
         <v>621</v>
@@ -20080,12 +20119,12 @@
         <v>39</v>
       </c>
       <c r="C259" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D259" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D259">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E259" t="s">
         <v>624</v>
@@ -20140,12 +20179,12 @@
         <v>627</v>
       </c>
       <c r="C260" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security System Maintenance, Vehicle Maintenance for Police Fleet</v>
       </c>
-      <c r="D260" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Storm Events, Wind Events</v>
+      <c r="D260">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E260" t="s">
         <v>628</v>
@@ -20200,12 +20239,12 @@
         <v>627</v>
       </c>
       <c r="C261" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security System Maintenance, Vehicle Maintenance for Police Fleet</v>
       </c>
-      <c r="D261" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Storm Events, Wind Events</v>
+      <c r="D261">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E261" t="s">
         <v>631</v>
@@ -20260,12 +20299,12 @@
         <v>627</v>
       </c>
       <c r="C262" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security System Maintenance, Vehicle Maintenance for Police Fleet</v>
       </c>
-      <c r="D262" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Storm Events, Wind Events</v>
+      <c r="D262">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E262" t="s">
         <v>634</v>
@@ -20317,12 +20356,12 @@
         <v>627</v>
       </c>
       <c r="C263" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security System Maintenance, Vehicle Maintenance for Police Fleet</v>
       </c>
-      <c r="D263" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Storm Events, Wind Events</v>
+      <c r="D263">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E263" t="s">
         <v>637</v>
@@ -20374,12 +20413,12 @@
         <v>627</v>
       </c>
       <c r="C264" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security System Maintenance, Vehicle Maintenance for Police Fleet</v>
       </c>
-      <c r="D264" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Storm Events, Wind Events</v>
+      <c r="D264">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E264" t="s">
         <v>640</v>
@@ -20434,12 +20473,12 @@
         <v>39</v>
       </c>
       <c r="C265" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D265" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D265">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E265" t="s">
         <v>643</v>
@@ -20494,12 +20533,12 @@
         <v>16</v>
       </c>
       <c r="C266" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D266" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D266">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E266" t="s">
         <v>646</v>
@@ -20554,12 +20593,12 @@
         <v>120</v>
       </c>
       <c r="C267" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D267" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D267">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E267" t="s">
         <v>649</v>
@@ -20614,12 +20653,12 @@
         <v>74</v>
       </c>
       <c r="C268" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D268" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D268">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E268" t="s">
         <v>652</v>
@@ -20674,12 +20713,12 @@
         <v>16</v>
       </c>
       <c r="C269" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D269" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D269">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E269" t="s">
         <v>655</v>
@@ -20731,12 +20770,12 @@
         <v>74</v>
       </c>
       <c r="C270" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D270" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D270">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
         <v>658</v>
@@ -20791,12 +20830,12 @@
         <v>16</v>
       </c>
       <c r="C271" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D271" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D271">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E271" t="s">
         <v>661</v>
@@ -20848,12 +20887,12 @@
         <v>74</v>
       </c>
       <c r="C272" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D272" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D272">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E272" t="s">
         <v>661</v>
@@ -20899,12 +20938,12 @@
         <v>74</v>
       </c>
       <c r="C273" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D273" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D273">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>661</v>
@@ -20950,12 +20989,12 @@
         <v>16</v>
       </c>
       <c r="C274" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D274" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D274">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E274" t="s">
         <v>658</v>
@@ -21010,12 +21049,12 @@
         <v>74</v>
       </c>
       <c r="C275" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D275" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D275">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
         <v>667</v>
@@ -21070,12 +21109,12 @@
         <v>22</v>
       </c>
       <c r="C276" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D276" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D276">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E276" t="s">
         <v>670</v>
@@ -21130,12 +21169,12 @@
         <v>16</v>
       </c>
       <c r="C277" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D277" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D277">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E277" t="s">
         <v>673</v>
@@ -21190,12 +21229,12 @@
         <v>22</v>
       </c>
       <c r="C278" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D278" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D278">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E278" t="s">
         <v>676</v>
@@ -21250,12 +21289,12 @@
         <v>20</v>
       </c>
       <c r="C279" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D279" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D279">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
         <v>679</v>
@@ -21310,12 +21349,12 @@
         <v>120</v>
       </c>
       <c r="C280" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D280" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D280">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
         <v>679</v>
@@ -21370,12 +21409,12 @@
         <v>16</v>
       </c>
       <c r="C281" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D281" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D281">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
         <v>683</v>
@@ -21430,12 +21469,12 @@
         <v>120</v>
       </c>
       <c r="C282" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D282" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D282">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E282" t="s">
         <v>686</v>
@@ -21490,12 +21529,12 @@
         <v>16</v>
       </c>
       <c r="C283" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D283" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D283">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E283" t="s">
         <v>689</v>
@@ -21550,12 +21589,12 @@
         <v>20</v>
       </c>
       <c r="C284" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D284" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D284">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E284" t="s">
         <v>692</v>
@@ -21604,12 +21643,12 @@
         <v>22</v>
       </c>
       <c r="C285" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D285" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D285">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E285" t="s">
         <v>695</v>
@@ -21664,12 +21703,12 @@
         <v>74</v>
       </c>
       <c r="C286" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D286" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D286">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E286" t="s">
         <v>698</v>
@@ -21724,12 +21763,12 @@
         <v>16</v>
       </c>
       <c r="C287" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D287" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D287">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E287" t="s">
         <v>701</v>
@@ -21781,12 +21820,12 @@
         <v>74</v>
       </c>
       <c r="C288" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D288" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D288">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E288" t="s">
         <v>698</v>
@@ -21841,12 +21880,12 @@
         <v>16</v>
       </c>
       <c r="C289" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D289" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D289">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E289" t="s">
         <v>698</v>
@@ -21901,12 +21940,12 @@
         <v>11</v>
       </c>
       <c r="C290" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D290" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D290">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E290" t="s">
         <v>706</v>
@@ -21961,12 +22000,12 @@
         <v>22</v>
       </c>
       <c r="C291" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D291" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D291">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E291" t="s">
         <v>709</v>
@@ -22021,12 +22060,12 @@
         <v>52</v>
       </c>
       <c r="C292" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D292" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D292">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E292" t="s">
         <v>712</v>
@@ -22081,12 +22120,12 @@
         <v>39</v>
       </c>
       <c r="C293" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D293" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D293">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E293" t="s">
         <v>715</v>
@@ -22141,12 +22180,12 @@
         <v>230</v>
       </c>
       <c r="C294" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D294" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D294">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E294" t="s">
         <v>718</v>
@@ -22201,12 +22240,12 @@
         <v>230</v>
       </c>
       <c r="C295" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D295" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D295">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
         <v>718</v>
@@ -22261,12 +22300,12 @@
         <v>230</v>
       </c>
       <c r="C296" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D296" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D296">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
         <v>718</v>
@@ -22321,12 +22360,12 @@
         <v>230</v>
       </c>
       <c r="C297" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D297" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D297">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E297" t="s">
         <v>718</v>
@@ -22381,12 +22420,12 @@
         <v>230</v>
       </c>
       <c r="C298" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D298" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D298">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E298" t="s">
         <v>718</v>
@@ -22441,12 +22480,12 @@
         <v>230</v>
       </c>
       <c r="C299" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D299" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D299">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E299" t="s">
         <v>725</v>
@@ -22501,12 +22540,12 @@
         <v>230</v>
       </c>
       <c r="C300" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks for Golf Carts and Maintenance Tools, Clubhouse Maintenance</v>
       </c>
-      <c r="D300" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles</v>
+      <c r="D300">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E300" t="s">
         <v>728</v>
@@ -22561,12 +22600,12 @@
         <v>16</v>
       </c>
       <c r="C301" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D301" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D301">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E301" t="s">
         <v>731</v>
@@ -22621,12 +22660,12 @@
         <v>22</v>
       </c>
       <c r="C302" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D302" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D302">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E302" t="s">
         <v>734</v>
@@ -22681,12 +22720,12 @@
         <v>93</v>
       </c>
       <c r="C303" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D303" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D303">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E303" t="s">
         <v>737</v>
@@ -22741,12 +22780,12 @@
         <v>529</v>
       </c>
       <c r="C304" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Vehicle Maintenance, Facility Safety Inspections, Maintenance of Waiting Areas and Amenities</v>
       </c>
-      <c r="D304" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Frost and Freeze-Thaw Cycles, Storm Events</v>
+      <c r="D304">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
         <v>740</v>
@@ -22801,12 +22840,12 @@
         <v>16</v>
       </c>
       <c r="C305" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D305" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D305">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E305" t="s">
         <v>743</v>
@@ -22861,12 +22900,12 @@
         <v>16</v>
       </c>
       <c r="C306" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D306" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D306">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E306" t="s">
         <v>743</v>
@@ -22921,12 +22960,12 @@
         <v>39</v>
       </c>
       <c r="C307" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D307" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D307">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E307" t="s">
         <v>747</v>
@@ -22981,12 +23020,12 @@
         <v>74</v>
       </c>
       <c r="C308" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D308" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D308">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E308" t="s">
         <v>750</v>
@@ -23041,12 +23080,12 @@
         <v>52</v>
       </c>
       <c r="C309" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D309" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D309">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E309" t="s">
         <v>753</v>
@@ -23101,12 +23140,12 @@
         <v>74</v>
       </c>
       <c r="C310" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D310" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D310">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E310" t="s">
         <v>757</v>
@@ -23161,12 +23200,12 @@
         <v>16</v>
       </c>
       <c r="C311" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D311" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D311">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E311" t="s">
         <v>760</v>
@@ -23221,12 +23260,12 @@
         <v>16</v>
       </c>
       <c r="C312" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D312" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D312">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E312" t="s">
         <v>760</v>
@@ -23281,12 +23320,12 @@
         <v>52</v>
       </c>
       <c r="C313" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D313" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D313">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E313" t="s">
         <v>764</v>
@@ -23341,12 +23380,12 @@
         <v>93</v>
       </c>
       <c r="C314" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D314" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D314">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E314" t="s">
         <v>767</v>
@@ -23401,12 +23440,12 @@
         <v>16</v>
       </c>
       <c r="C315" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D315" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D315">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E315" t="s">
         <v>770</v>
@@ -23461,12 +23500,12 @@
         <v>16</v>
       </c>
       <c r="C316" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D316" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D316">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E316" t="s">
         <v>770</v>
@@ -23521,12 +23560,12 @@
         <v>774</v>
       </c>
       <c r="C317" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, HVAC System Checks</v>
       </c>
-      <c r="D317" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D317">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E317" t="s">
         <v>775</v>
@@ -23581,12 +23620,12 @@
         <v>74</v>
       </c>
       <c r="C318" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D318" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D318">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E318" t="s">
         <v>778</v>
@@ -23641,12 +23680,12 @@
         <v>16</v>
       </c>
       <c r="C319" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D319" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D319">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E319" t="s">
         <v>781</v>
@@ -23701,12 +23740,12 @@
         <v>16</v>
       </c>
       <c r="C320" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D320" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D320">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E320" t="s">
         <v>784</v>
@@ -23761,12 +23800,12 @@
         <v>48</v>
       </c>
       <c r="C321" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D321" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D321">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E321" t="s">
         <v>787</v>
@@ -23809,12 +23848,12 @@
         <v>74</v>
       </c>
       <c r="C322" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D322" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D322">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E322" t="s">
         <v>790</v>
@@ -23869,12 +23908,12 @@
         <v>16</v>
       </c>
       <c r="C323" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D323" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D323">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E323" t="s">
         <v>793</v>
@@ -23929,12 +23968,12 @@
         <v>16</v>
       </c>
       <c r="C324" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D324" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D324">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E324" t="s">
         <v>793</v>
@@ -23989,12 +24028,12 @@
         <v>417</v>
       </c>
       <c r="C325" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D325" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D325">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E325" t="s">
         <v>433</v>
@@ -24049,12 +24088,12 @@
         <v>417</v>
       </c>
       <c r="C326" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D326" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D326">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E326" t="s">
         <v>433</v>
@@ -24109,12 +24148,12 @@
         <v>417</v>
       </c>
       <c r="C327" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Vehicle Maintenance, Equipment Checks and Maintenance, Facility Safety Inspections</v>
       </c>
-      <c r="D327" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D327">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E327" t="s">
         <v>433</v>
@@ -24169,12 +24208,12 @@
         <v>11</v>
       </c>
       <c r="C328" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D328" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D328">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E328" t="s">
         <v>800</v>
@@ -24229,12 +24268,12 @@
         <v>16</v>
       </c>
       <c r="C329" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D329" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D329">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E329" t="s">
         <v>803</v>
@@ -24289,12 +24328,12 @@
         <v>16</v>
       </c>
       <c r="C330" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D330" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D330">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E330" t="s">
         <v>806</v>
@@ -24349,12 +24388,12 @@
         <v>93</v>
       </c>
       <c r="C331" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D331" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D331">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E331" t="s">
         <v>809</v>
@@ -24409,12 +24448,12 @@
         <v>16</v>
       </c>
       <c r="C332" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D332" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D332">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E332" t="s">
         <v>812</v>
@@ -24469,12 +24508,12 @@
         <v>16</v>
       </c>
       <c r="C333" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D333" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D333">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E333" t="s">
         <v>812</v>
@@ -24529,12 +24568,12 @@
         <v>16</v>
       </c>
       <c r="C334" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D334" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D334">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E334" t="s">
         <v>812</v>
@@ -24589,12 +24628,12 @@
         <v>120</v>
       </c>
       <c r="C335" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D335" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D335">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E335" t="s">
         <v>817</v>
@@ -24649,12 +24688,12 @@
         <v>16</v>
       </c>
       <c r="C336" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D336" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D336">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E336" t="s">
         <v>820</v>
@@ -24709,12 +24748,12 @@
         <v>16</v>
       </c>
       <c r="C337" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D337" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D337">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E337" t="s">
         <v>823</v>
@@ -24769,12 +24808,12 @@
         <v>16</v>
       </c>
       <c r="C338" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D338" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D338">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E338" t="s">
         <v>826</v>
@@ -24829,12 +24868,12 @@
         <v>74</v>
       </c>
       <c r="C339" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D339" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D339">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E339" t="s">
         <v>820</v>
@@ -24889,12 +24928,12 @@
         <v>74</v>
       </c>
       <c r="C340" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D340" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D340">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
         <v>820</v>
@@ -24949,12 +24988,12 @@
         <v>74</v>
       </c>
       <c r="C341" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D341" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D341">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E341" t="s">
         <v>831</v>
@@ -25009,12 +25048,12 @@
         <v>74</v>
       </c>
       <c r="C342" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D342" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D342">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E342" t="s">
         <v>820</v>
@@ -25069,12 +25108,12 @@
         <v>74</v>
       </c>
       <c r="C343" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D343" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D343">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E343" t="s">
         <v>820</v>
@@ -25129,12 +25168,12 @@
         <v>16</v>
       </c>
       <c r="C344" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D344" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D344">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E344" t="s">
         <v>836</v>
@@ -25189,12 +25228,12 @@
         <v>74</v>
       </c>
       <c r="C345" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D345" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D345">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E345" t="s">
         <v>831</v>
@@ -25249,12 +25288,12 @@
         <v>16</v>
       </c>
       <c r="C346" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D346" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D346">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E346" t="s">
         <v>831</v>
@@ -25309,12 +25348,12 @@
         <v>16</v>
       </c>
       <c r="C347" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D347" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D347">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E347" t="s">
         <v>841</v>
@@ -25369,12 +25408,12 @@
         <v>16</v>
       </c>
       <c r="C348" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D348" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D348">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E348" t="s">
         <v>841</v>
@@ -25429,12 +25468,12 @@
         <v>16</v>
       </c>
       <c r="C349" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D349" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D349">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E349" t="s">
         <v>841</v>
@@ -25489,12 +25528,12 @@
         <v>120</v>
       </c>
       <c r="C350" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D350" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D350">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E350" t="s">
         <v>26</v>
@@ -25549,12 +25588,12 @@
         <v>374</v>
       </c>
       <c r="C351" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D351" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D351">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E351" t="s">
         <v>847</v>
@@ -25609,12 +25648,12 @@
         <v>93</v>
       </c>
       <c r="C352" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D352" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D352">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E352" t="s">
         <v>850</v>
@@ -25669,12 +25708,12 @@
         <v>52</v>
       </c>
       <c r="C353" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D353" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D353">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E353" t="s">
         <v>850</v>
@@ -25729,12 +25768,12 @@
         <v>16</v>
       </c>
       <c r="C354" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D354" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D354">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E354" t="s">
         <v>850</v>
@@ -25780,12 +25819,12 @@
         <v>11</v>
       </c>
       <c r="C355" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D355" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D355">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>855</v>
@@ -25840,12 +25879,12 @@
         <v>11</v>
       </c>
       <c r="C356" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D356" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D356">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E356" t="s">
         <v>855</v>
@@ -25900,12 +25939,12 @@
         <v>11</v>
       </c>
       <c r="C357" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D357" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D357">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E357" t="s">
         <v>855</v>
@@ -25960,12 +25999,12 @@
         <v>16</v>
       </c>
       <c r="C358" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D358" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D358">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E358" t="s">
         <v>860</v>
@@ -26020,12 +26059,12 @@
         <v>374</v>
       </c>
       <c r="C359" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D359" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D359">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E359" t="s">
         <v>863</v>
@@ -26068,12 +26107,12 @@
         <v>16</v>
       </c>
       <c r="C360" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D360" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D360">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E360" t="s">
         <v>866</v>
@@ -26128,12 +26167,12 @@
         <v>93</v>
       </c>
       <c r="C361" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D361" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D361">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E361" t="s">
         <v>869</v>
@@ -26188,12 +26227,12 @@
         <v>374</v>
       </c>
       <c r="C362" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D362" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D362">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E362" t="s">
         <v>872</v>
@@ -26248,12 +26287,12 @@
         <v>16</v>
       </c>
       <c r="C363" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D363" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D363">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E363" t="s">
         <v>875</v>
@@ -26308,12 +26347,12 @@
         <v>529</v>
       </c>
       <c r="C364" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Vehicle Maintenance, Facility Safety Inspections, Maintenance of Waiting Areas and Amenities</v>
       </c>
-      <c r="D364" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Frost and Freeze-Thaw Cycles, Storm Events</v>
+      <c r="D364">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E364" t="s">
         <v>878</v>
@@ -26368,12 +26407,12 @@
         <v>16</v>
       </c>
       <c r="C365" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D365" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D365">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E365" t="s">
         <v>881</v>
@@ -26428,12 +26467,12 @@
         <v>22</v>
       </c>
       <c r="C366" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D366" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D366">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E366" t="s">
         <v>884</v>
@@ -26488,12 +26527,12 @@
         <v>120</v>
       </c>
       <c r="C367" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D367" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D367">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E367" t="s">
         <v>887</v>
@@ -26548,12 +26587,12 @@
         <v>93</v>
       </c>
       <c r="C368" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D368" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D368">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E368" t="s">
         <v>890</v>
@@ -26608,12 +26647,12 @@
         <v>20</v>
       </c>
       <c r="C369" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D369" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D369">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E369" t="s">
         <v>893</v>
@@ -26668,12 +26707,12 @@
         <v>39</v>
       </c>
       <c r="C370" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D370" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D370">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E370" t="s">
         <v>896</v>
@@ -26728,12 +26767,12 @@
         <v>120</v>
       </c>
       <c r="C371" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D371" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D371">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E371" t="s">
         <v>893</v>
@@ -26788,12 +26827,12 @@
         <v>39</v>
       </c>
       <c r="C372" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D372" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D372">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E372" t="s">
         <v>621</v>
@@ -26848,12 +26887,12 @@
         <v>16</v>
       </c>
       <c r="C373" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D373" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D373">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E373" t="s">
         <v>901</v>
@@ -26908,12 +26947,12 @@
         <v>16</v>
       </c>
       <c r="C374" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D374" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D374">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E374" t="s">
         <v>901</v>
@@ -26968,12 +27007,12 @@
         <v>16</v>
       </c>
       <c r="C375" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D375" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D375">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E375" t="s">
         <v>906</v>
@@ -27028,12 +27067,12 @@
         <v>16</v>
       </c>
       <c r="C376" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D376" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D376">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E376" t="s">
         <v>906</v>
@@ -27088,12 +27127,12 @@
         <v>39</v>
       </c>
       <c r="C377" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D377" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D377">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E377" t="s">
         <v>910</v>
@@ -27148,12 +27187,12 @@
         <v>39</v>
       </c>
       <c r="C378" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D378" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D378">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E378" t="s">
         <v>913</v>
@@ -27208,12 +27247,12 @@
         <v>39</v>
       </c>
       <c r="C379" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D379" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D379">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E379" t="s">
         <v>916</v>
@@ -27268,12 +27307,12 @@
         <v>16</v>
       </c>
       <c r="C380" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D380" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D380">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E380" t="s">
         <v>919</v>
@@ -27328,12 +27367,12 @@
         <v>11</v>
       </c>
       <c r="C381" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D381" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D381">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E381" t="s">
         <v>922</v>
@@ -27388,12 +27427,12 @@
         <v>11</v>
       </c>
       <c r="C382" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D382" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D382">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E382" t="s">
         <v>922</v>
@@ -27448,12 +27487,12 @@
         <v>120</v>
       </c>
       <c r="C383" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D383" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D383">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E383" t="s">
         <v>718</v>
@@ -27508,12 +27547,12 @@
         <v>16</v>
       </c>
       <c r="C384" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D384" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D384">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E384" t="s">
         <v>927</v>
@@ -27568,12 +27607,12 @@
         <v>20</v>
       </c>
       <c r="C385" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D385" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D385">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E385" t="s">
         <v>930</v>
@@ -27628,12 +27667,12 @@
         <v>16</v>
       </c>
       <c r="C386" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D386" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D386">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E386" t="s">
         <v>718</v>
@@ -27688,12 +27727,12 @@
         <v>74</v>
       </c>
       <c r="C387" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D387" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D387">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E387" t="s">
         <v>718</v>
@@ -27748,12 +27787,12 @@
         <v>74</v>
       </c>
       <c r="C388" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D388" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D388">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E388" t="s">
         <v>935</v>
@@ -27808,12 +27847,12 @@
         <v>74</v>
       </c>
       <c r="C389" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D389" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D389">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E389" t="s">
         <v>935</v>
@@ -27868,12 +27907,12 @@
         <v>16</v>
       </c>
       <c r="C390" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D390" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D390">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E390" t="s">
         <v>939</v>
@@ -27928,12 +27967,12 @@
         <v>16</v>
       </c>
       <c r="C391" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D391" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D391">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E391" t="s">
         <v>939</v>
@@ -27988,12 +28027,12 @@
         <v>16</v>
       </c>
       <c r="C392" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D392" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D392">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E392" t="s">
         <v>943</v>
@@ -28048,12 +28087,12 @@
         <v>16</v>
       </c>
       <c r="C393" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D393" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D393">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E393" t="s">
         <v>946</v>
@@ -28108,12 +28147,12 @@
         <v>16</v>
       </c>
       <c r="C394" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D394" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D394">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E394" t="s">
         <v>946</v>
@@ -28168,12 +28207,12 @@
         <v>16</v>
       </c>
       <c r="C395" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D395" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D395">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E395" t="s">
         <v>946</v>
@@ -28228,12 +28267,12 @@
         <v>74</v>
       </c>
       <c r="C396" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D396" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D396">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E396" t="s">
         <v>946</v>
@@ -28288,12 +28327,12 @@
         <v>74</v>
       </c>
       <c r="C397" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D397" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D397">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E397" t="s">
         <v>946</v>
@@ -28348,12 +28387,12 @@
         <v>48</v>
       </c>
       <c r="C398" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D398" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D398">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E398" t="s">
         <v>953</v>
@@ -28408,12 +28447,12 @@
         <v>120</v>
       </c>
       <c r="C399" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D399" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D399">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E399" t="s">
         <v>956</v>
@@ -28468,12 +28507,12 @@
         <v>39</v>
       </c>
       <c r="C400" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Security Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D400" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures</v>
+      <c r="D400">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E400" t="s">
         <v>959</v>
@@ -28528,12 +28567,12 @@
         <v>16</v>
       </c>
       <c r="C401" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D401" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D401">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E401" t="s">
         <v>962</v>
@@ -28588,12 +28627,12 @@
         <v>16</v>
       </c>
       <c r="C402" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D402" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D402">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E402" t="s">
         <v>965</v>
@@ -28648,12 +28687,12 @@
         <v>16</v>
       </c>
       <c r="C403" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D403" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D403">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E403" t="s">
         <v>968</v>
@@ -28708,12 +28747,12 @@
         <v>16</v>
       </c>
       <c r="C404" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D404" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D404">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E404" t="s">
         <v>971</v>
@@ -28768,12 +28807,12 @@
         <v>16</v>
       </c>
       <c r="C405" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D405" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D405">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E405" t="s">
         <v>974</v>
@@ -28828,12 +28867,12 @@
         <v>93</v>
       </c>
       <c r="C406" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D406" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D406">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E406" t="s">
         <v>977</v>
@@ -28888,12 +28927,12 @@
         <v>74</v>
       </c>
       <c r="C407" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D407" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D407">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E407" t="s">
         <v>981</v>
@@ -28948,12 +28987,12 @@
         <v>16</v>
       </c>
       <c r="C408" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D408" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D408">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E408" t="s">
         <v>984</v>
@@ -29008,12 +29047,12 @@
         <v>16</v>
       </c>
       <c r="C409" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D409" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D409">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E409" t="s">
         <v>987</v>
@@ -29068,12 +29107,12 @@
         <v>16</v>
       </c>
       <c r="C410" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D410" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D410">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E410" t="s">
         <v>987</v>
@@ -29128,12 +29167,12 @@
         <v>93</v>
       </c>
       <c r="C411" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D411" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D411">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E411" t="s">
         <v>991</v>
@@ -29188,12 +29227,12 @@
         <v>74</v>
       </c>
       <c r="C412" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D412" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D412">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E412" t="s">
         <v>991</v>
@@ -29239,12 +29278,12 @@
         <v>22</v>
       </c>
       <c r="C413" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D413" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D413">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E413" t="s">
         <v>996</v>
@@ -29299,12 +29338,12 @@
         <v>22</v>
       </c>
       <c r="C414" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D414" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D414">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E414" t="s">
         <v>999</v>
@@ -29359,12 +29398,12 @@
         <v>22</v>
       </c>
       <c r="C415" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D415" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D415">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E415" t="s">
         <v>1002</v>
@@ -29419,12 +29458,12 @@
         <v>120</v>
       </c>
       <c r="C416" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D416" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D416">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E416" t="s">
         <v>1005</v>
@@ -29479,12 +29518,12 @@
         <v>16</v>
       </c>
       <c r="C417" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D417" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D417">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E417" t="s">
         <v>1008</v>
@@ -29539,12 +29578,12 @@
         <v>120</v>
       </c>
       <c r="C418" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D418" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D418">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E418" t="s">
         <v>1011</v>
@@ -29599,12 +29638,12 @@
         <v>52</v>
       </c>
       <c r="C419" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D419" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D419">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E419" t="s">
         <v>1014</v>
@@ -29659,12 +29698,12 @@
         <v>11</v>
       </c>
       <c r="C420" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D420" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D420">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E420" t="s">
         <v>1017</v>
@@ -29719,12 +29758,12 @@
         <v>11</v>
       </c>
       <c r="C421" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D421" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D421">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E421" t="s">
         <v>1017</v>
@@ -29779,12 +29818,12 @@
         <v>11</v>
       </c>
       <c r="C422" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D422" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D422">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E422" t="s">
         <v>1017</v>
@@ -29839,12 +29878,12 @@
         <v>22</v>
       </c>
       <c r="C423" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D423" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D423">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E423" t="s">
         <v>1022</v>
@@ -29899,12 +29938,12 @@
         <v>74</v>
       </c>
       <c r="C424" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D424" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D424">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E424" t="s">
         <v>68</v>
@@ -29959,12 +29998,12 @@
         <v>16</v>
       </c>
       <c r="C425" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D425" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D425">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E425" t="s">
         <v>750</v>
@@ -30019,12 +30058,12 @@
         <v>16</v>
       </c>
       <c r="C426" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D426" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D426">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E426" t="s">
         <v>1027</v>
@@ -30079,12 +30118,12 @@
         <v>16</v>
       </c>
       <c r="C427" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D427" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D427">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E427" t="s">
         <v>1027</v>
@@ -30139,12 +30178,12 @@
         <v>16</v>
       </c>
       <c r="C428" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D428" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D428">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E428" t="s">
         <v>1031</v>
@@ -30199,12 +30238,12 @@
         <v>11</v>
       </c>
       <c r="C429" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D429" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D429">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E429" t="s">
         <v>1034</v>
@@ -30259,12 +30298,12 @@
         <v>11</v>
       </c>
       <c r="C430" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D430" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D430">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E430" t="s">
         <v>1034</v>
@@ -30319,12 +30358,12 @@
         <v>74</v>
       </c>
       <c r="C431" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D431" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D431">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E431" t="s">
         <v>1038</v>
@@ -30379,12 +30418,12 @@
         <v>16</v>
       </c>
       <c r="C432" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D432" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D432">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E432" t="s">
         <v>1038</v>
@@ -30439,12 +30478,12 @@
         <v>52</v>
       </c>
       <c r="C433" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D433" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D433">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E433" t="s">
         <v>1042</v>
@@ -30499,12 +30538,12 @@
         <v>93</v>
       </c>
       <c r="C434" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D434" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D434">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E434" t="s">
         <v>1045</v>
@@ -30559,12 +30598,12 @@
         <v>510</v>
       </c>
       <c r="C435" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Stage and Lighting Equipment, Sound System Maintenance</v>
       </c>
-      <c r="D435" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D435">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E435" t="s">
         <v>1048</v>
@@ -30619,12 +30658,12 @@
         <v>74</v>
       </c>
       <c r="C436" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D436" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D436">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E436" t="s">
         <v>1051</v>
@@ -30679,12 +30718,12 @@
         <v>11</v>
       </c>
       <c r="C437" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D437" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D437">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E437" t="s">
         <v>1054</v>
@@ -30739,12 +30778,12 @@
         <v>74</v>
       </c>
       <c r="C438" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D438" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D438">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E438" t="s">
         <v>1057</v>
@@ -30799,12 +30838,12 @@
         <v>16</v>
       </c>
       <c r="C439" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D439" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D439">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E439" t="s">
         <v>1057</v>
@@ -30859,12 +30898,12 @@
         <v>16</v>
       </c>
       <c r="C440" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D440" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D440">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E440" t="s">
         <v>1061</v>
@@ -30919,12 +30958,12 @@
         <v>16</v>
       </c>
       <c r="C441" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D441" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D441">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E441" t="s">
         <v>1061</v>
@@ -30979,12 +31018,12 @@
         <v>16</v>
       </c>
       <c r="C442" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D442" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D442">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E442" t="s">
         <v>1065</v>
@@ -31039,12 +31078,12 @@
         <v>16</v>
       </c>
       <c r="C443" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D443" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D443">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E443" t="s">
         <v>1065</v>
@@ -31099,12 +31138,12 @@
         <v>16</v>
       </c>
       <c r="C444" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D444" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D444">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E444" t="s">
         <v>1069</v>
@@ -31159,12 +31198,12 @@
         <v>16</v>
       </c>
       <c r="C445" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D445" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D445">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E445" t="s">
         <v>1072</v>
@@ -31219,12 +31258,12 @@
         <v>52</v>
       </c>
       <c r="C446" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D446" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D446">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E446" t="s">
         <v>1075</v>
@@ -31279,12 +31318,12 @@
         <v>11</v>
       </c>
       <c r="C447" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D447" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D447">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E447" t="s">
         <v>1078</v>
@@ -31339,12 +31378,12 @@
         <v>93</v>
       </c>
       <c r="C448" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D448" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D448">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E448" t="s">
         <v>1081</v>
@@ -31399,12 +31438,12 @@
         <v>16</v>
       </c>
       <c r="C449" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D449" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D449">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E449" t="s">
         <v>1081</v>
@@ -31456,12 +31495,12 @@
         <v>16</v>
       </c>
       <c r="C450" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D450" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D450">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E450" t="s">
         <v>1085</v>
@@ -31516,12 +31555,12 @@
         <v>16</v>
       </c>
       <c r="C451" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D451" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D451">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E451" t="s">
         <v>1088</v>
@@ -31576,12 +31615,12 @@
         <v>16</v>
       </c>
       <c r="C452" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D452" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D452">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E452" t="s">
         <v>1088</v>
@@ -31636,12 +31675,12 @@
         <v>16</v>
       </c>
       <c r="C453" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D453" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D453">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E453" t="s">
         <v>1088</v>
@@ -31696,12 +31735,12 @@
         <v>22</v>
       </c>
       <c r="C454" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D454" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D454">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E454" t="s">
         <v>1093</v>
@@ -31756,12 +31795,12 @@
         <v>120</v>
       </c>
       <c r="C455" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Ice Maintenance, Seating Area Maintenance, Sound System Maintenance</v>
       </c>
-      <c r="D455" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D455">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E455" t="s">
         <v>1093</v>
@@ -31816,12 +31855,12 @@
         <v>93</v>
       </c>
       <c r="C456" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D456" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D456">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E456" t="s">
         <v>1093</v>
@@ -31876,12 +31915,12 @@
         <v>52</v>
       </c>
       <c r="C457" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D457" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D457">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E457" t="s">
         <v>1093</v>
@@ -31936,12 +31975,12 @@
         <v>16</v>
       </c>
       <c r="C458" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D458" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D458">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E458" t="s">
         <v>1099</v>
@@ -31996,12 +32035,12 @@
         <v>16</v>
       </c>
       <c r="C459" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D459" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D459">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E459" t="s">
         <v>1102</v>
@@ -32056,12 +32095,12 @@
         <v>20</v>
       </c>
       <c r="C460" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D460" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D460">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E460" t="s">
         <v>1105</v>
@@ -32116,12 +32155,12 @@
         <v>16</v>
       </c>
       <c r="C461" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D461" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D461">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E461" t="s">
         <v>1108</v>
@@ -32176,12 +32215,12 @@
         <v>16</v>
       </c>
       <c r="C462" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D462" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D462">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E462" t="s">
         <v>1111</v>
@@ -32236,12 +32275,12 @@
         <v>74</v>
       </c>
       <c r="C463" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D463" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D463">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E463" t="s">
         <v>1114</v>
@@ -32296,12 +32335,12 @@
         <v>16</v>
       </c>
       <c r="C464" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D464" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D464">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E464" t="s">
         <v>1111</v>
@@ -32356,12 +32395,12 @@
         <v>20</v>
       </c>
       <c r="C465" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D465" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D465">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E465" t="s">
         <v>1118</v>
@@ -32416,12 +32455,12 @@
         <v>52</v>
       </c>
       <c r="C466" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D466" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D466">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E466" t="s">
         <v>1121</v>
@@ -32476,12 +32515,12 @@
         <v>93</v>
       </c>
       <c r="C467" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D467" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D467">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E467" t="s">
         <v>1124</v>
@@ -32536,12 +32575,12 @@
         <v>16</v>
       </c>
       <c r="C468" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D468" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D468">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E468" t="s">
         <v>1127</v>
@@ -32596,12 +32635,12 @@
         <v>74</v>
       </c>
       <c r="C469" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D469" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D469">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E469" t="s">
         <v>1127</v>
@@ -32656,12 +32695,12 @@
         <v>16</v>
       </c>
       <c r="C470" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D470" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D470">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E470" t="s">
         <v>1127</v>
@@ -32716,12 +32755,12 @@
         <v>774</v>
       </c>
       <c r="C471" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, HVAC System Checks</v>
       </c>
-      <c r="D471" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D471">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E471" t="s">
         <v>1132</v>
@@ -32776,12 +32815,12 @@
         <v>529</v>
       </c>
       <c r="C472" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Vehicle Maintenance, Facility Safety Inspections, Maintenance of Waiting Areas and Amenities</v>
       </c>
-      <c r="D472" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, Frost and Freeze-Thaw Cycles, Storm Events</v>
+      <c r="D472">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E472" t="s">
         <v>1135</v>
@@ -32836,12 +32875,12 @@
         <v>11</v>
       </c>
       <c r="C473" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D473" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D473">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E473" t="s">
         <v>1135</v>
@@ -32896,12 +32935,12 @@
         <v>11</v>
       </c>
       <c r="C474" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Equipment Checks and Maintenance, Storage Facility Maintenance</v>
       </c>
-      <c r="D474" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Wind Events</v>
+      <c r="D474">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E474" t="s">
         <v>1139</v>
@@ -32953,12 +32992,12 @@
         <v>52</v>
       </c>
       <c r="C475" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Public Computer and Technology Maintenance, Bookshelf and Inventory Maintenance</v>
       </c>
-      <c r="D475" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D475">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E475" t="s">
         <v>1142</v>
@@ -33013,12 +33052,12 @@
         <v>22</v>
       </c>
       <c r="C476" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>HVAC System Maintenance, Pool Water Quality Checks, Cleaning and Maintenance of Pool Facilities</v>
       </c>
-      <c r="D476" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, High Humidity and Condensation</v>
+      <c r="D476">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E476" t="s">
         <v>1145</v>
@@ -33073,12 +33112,12 @@
         <v>74</v>
       </c>
       <c r="C477" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D477" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D477">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E477" t="s">
         <v>1148</v>
@@ -33133,12 +33172,12 @@
         <v>74</v>
       </c>
       <c r="C478" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D478" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D478">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E478" t="s">
         <v>1148</v>
@@ -33193,12 +33232,12 @@
         <v>16</v>
       </c>
       <c r="C479" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D479" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D479">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E479" t="s">
         <v>1148</v>
@@ -33253,12 +33292,12 @@
         <v>16</v>
       </c>
       <c r="C480" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D480" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D480">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E480" t="s">
         <v>1153</v>
@@ -33313,12 +33352,12 @@
         <v>16</v>
       </c>
       <c r="C481" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D481" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D481">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E481" t="s">
         <v>1153</v>
@@ -33373,12 +33412,12 @@
         <v>74</v>
       </c>
       <c r="C482" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D482" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D482">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E482" t="s">
         <v>1157</v>
@@ -33433,12 +33472,12 @@
         <v>16</v>
       </c>
       <c r="C483" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D483" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D483">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E483" t="s">
         <v>1160</v>
@@ -33493,12 +33532,12 @@
         <v>16</v>
       </c>
       <c r="C484" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D484" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D484">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E484" t="s">
         <v>1163</v>
@@ -33541,12 +33580,12 @@
         <v>93</v>
       </c>
       <c r="C485" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D485" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D485">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E485" t="s">
         <v>1166</v>
@@ -33601,12 +33640,12 @@
         <v>16</v>
       </c>
       <c r="C486" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D486" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D486">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E486" t="s">
         <v>1169</v>
@@ -33661,12 +33700,12 @@
         <v>74</v>
       </c>
       <c r="C487" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, Groundskeeping and Landscaping, Equipment Checks and Maintenance</v>
       </c>
-      <c r="D487" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D487">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E487" t="s">
         <v>1169</v>
@@ -33721,12 +33760,12 @@
         <v>16</v>
       </c>
       <c r="C488" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D488" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D488">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E488" t="s">
         <v>1173</v>
@@ -33781,12 +33820,12 @@
         <v>48</v>
       </c>
       <c r="C489" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Checks, Seating Area Maintenance, Cleaning and Sanitation</v>
       </c>
-      <c r="D489" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Storm Events, Wind Events</v>
+      <c r="D489">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E489" t="s">
         <v>1176</v>
@@ -33841,12 +33880,12 @@
         <v>93</v>
       </c>
       <c r="C490" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Building Maintenance, HVAC System Maintenance, Groundskeeping and Landscaping, Cleaning and Sanitation</v>
       </c>
-      <c r="D490" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Extreme Temperatures, Snow and Ice Accumulation, High Humidity and Condensation, Storm Events, Wind Events</v>
+      <c r="D490">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="E490" t="s">
         <v>1179</v>
@@ -33901,12 +33940,12 @@
         <v>16</v>
       </c>
       <c r="C491" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D491" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D491">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E491" t="s">
         <v>1183</v>
@@ -33961,12 +34000,12 @@
         <v>374</v>
       </c>
       <c r="C492" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D492" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D492">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E492" t="s">
         <v>1186</v>
@@ -34021,12 +34060,12 @@
         <v>374</v>
       </c>
       <c r="C493" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D493" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D493">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E493" t="s">
         <v>1186</v>
@@ -34078,12 +34117,12 @@
         <v>374</v>
       </c>
       <c r="C494" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D494" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D494">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E494" t="s">
         <v>1186</v>
@@ -34135,12 +34174,12 @@
         <v>374</v>
       </c>
       <c r="C495" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Grave Marker Maintenance</v>
       </c>
-      <c r="D495" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D495">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E495" t="s">
         <v>1186</v>
@@ -34192,12 +34231,12 @@
         <v>16</v>
       </c>
       <c r="C496" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D496" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D496">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E496" t="s">
         <v>1192</v>
@@ -34252,12 +34291,12 @@
         <v>16</v>
       </c>
       <c r="C497" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D497" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D497">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E497" t="s">
         <v>1195</v>
@@ -34312,12 +34351,12 @@
         <v>16</v>
       </c>
       <c r="C498" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$B$18,2,FALSE)</f>
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$D$18,4,FALSE)</f>
         <v>Groundskeeping and Landscaping, Playground Equipment Checks and Maintenance, Maintenance of Public Restrooms and Facilities</v>
       </c>
-      <c r="D498" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
-        <v>Snow and Ice Accumulation, Storm Events, Heavy Rainfall and Flooding, Frost and Freeze-Thaw Cycles, Wind Events</v>
+      <c r="D498">
+        <f>VLOOKUP(Table2[[#This Row],[Asset Type]],Maintenance!$A$1:$C$18,3,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E498" t="s">
         <v>1198</v>
@@ -34379,7 +34418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299B59B4-69F4-4336-B059-2BB631D59C82}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="A65" sqref="A2:A68"/>
     </sheetView>
   </sheetViews>
@@ -35393,214 +35432,270 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2452EC2-DAA9-1544-820B-C1DC44C12623}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1" t="s">
         <v>1289</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>1290</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
       <c r="B3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>1291</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>374</v>
       </c>
       <c r="B4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>1292</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
       <c r="B5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>1293</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>510</v>
       </c>
       <c r="B6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>1294</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>417</v>
       </c>
       <c r="B7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>1295</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>230</v>
       </c>
       <c r="B8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>1296</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>1297</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>1298</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>774</v>
       </c>
       <c r="B11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>1299</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>1300</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>1301</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>1302</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>627</v>
       </c>
       <c r="B15" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>1303</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>1304</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>529</v>
       </c>
       <c r="B17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>1305</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>1306</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>1317</v>
       </c>
     </row>
   </sheetData>
